--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I809"/>
+  <dimension ref="A1:I810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28693,6 +28693,41 @@
         <v>5192800</v>
       </c>
     </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G810" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H810" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I810" t="n">
+        <v>8309700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I810"/>
+  <dimension ref="A1:I811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28728,6 +28728,41 @@
         <v>8309700</v>
       </c>
     </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G811" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H811" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I811" t="n">
+        <v>8836900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I811"/>
+  <dimension ref="A1:I812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28763,6 +28763,41 @@
         <v>8836900</v>
       </c>
     </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G812" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H812" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I812" t="n">
+        <v>4675100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I812"/>
+  <dimension ref="A1:I813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28798,6 +28798,41 @@
         <v>4675100</v>
       </c>
     </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G813" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H813" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I813" t="n">
+        <v>2833000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I813"/>
+  <dimension ref="A1:I814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28833,6 +28833,41 @@
         <v>2833000</v>
       </c>
     </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G814" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H814" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I814" t="n">
+        <v>1028900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I814"/>
+  <dimension ref="A1:I815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28868,6 +28868,41 @@
         <v>1028900</v>
       </c>
     </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G815" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I815" t="n">
+        <v>3267600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I815"/>
+  <dimension ref="A1:I816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28903,6 +28903,41 @@
         <v>3267600</v>
       </c>
     </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E816" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G816" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I816" t="n">
+        <v>1351800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I816"/>
+  <dimension ref="A1:I817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28938,6 +28938,41 @@
         <v>1351800</v>
       </c>
     </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E817" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G817" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H817" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I817" t="n">
+        <v>3478900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I817"/>
+  <dimension ref="A1:I818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28973,6 +28973,41 @@
         <v>3478900</v>
       </c>
     </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E818" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G818" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H818" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I818" t="n">
+        <v>7243900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I818"/>
+  <dimension ref="A1:I819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29008,6 +29008,41 @@
         <v>7243900</v>
       </c>
     </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G819" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H819" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I819" t="n">
+        <v>8498900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I819"/>
+  <dimension ref="A1:I820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29043,6 +29043,41 @@
         <v>8498900</v>
       </c>
     </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G820" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H820" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I820" t="n">
+        <v>2223900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I820"/>
+  <dimension ref="A1:I821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29078,6 +29078,41 @@
         <v>2223900</v>
       </c>
     </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G821" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I821" t="n">
+        <v>9258800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I821"/>
+  <dimension ref="A1:I823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29113,6 +29113,76 @@
         <v>9258800</v>
       </c>
     </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E822" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F822" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G822" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H822" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3332500</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E823" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G823" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H823" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I823" t="n">
+        <v>15170100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I823"/>
+  <dimension ref="A1:I825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29183,6 +29183,76 @@
         <v>15170100</v>
       </c>
     </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E824" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G824" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H824" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I824" t="n">
+        <v>7626900</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E825" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G825" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I825" t="n">
+        <v>6809700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I825"/>
+  <dimension ref="A1:I826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29253,6 +29253,41 @@
         <v>6809700</v>
       </c>
     </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E826" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G826" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H826" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I826" t="n">
+        <v>4077900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I826"/>
+  <dimension ref="A1:I827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29288,6 +29288,41 @@
         <v>4077900</v>
       </c>
     </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E827" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G827" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H827" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I827" t="n">
+        <v>4343000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I827"/>
+  <dimension ref="A1:I828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29323,6 +29323,41 @@
         <v>4343000</v>
       </c>
     </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E828" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G828" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I828" t="n">
+        <v>2532300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I828"/>
+  <dimension ref="A1:I829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29358,6 +29358,41 @@
         <v>2532300</v>
       </c>
     </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E829" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G829" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I829" t="n">
+        <v>14198800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I829"/>
+  <dimension ref="A1:I831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29393,6 +29393,76 @@
         <v>14198800</v>
       </c>
     </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E830" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G830" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I830" t="n">
+        <v>4967600</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E831" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G831" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I831" t="n">
+        <v>1609300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I831"/>
+  <dimension ref="A1:I832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29463,6 +29463,41 @@
         <v>1609300</v>
       </c>
     </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E832" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G832" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I832" t="n">
+        <v>17606200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I832"/>
+  <dimension ref="A1:I833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29498,6 +29498,41 @@
         <v>17606200</v>
       </c>
     </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G833" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I833" t="n">
+        <v>21897200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I833"/>
+  <dimension ref="A1:I842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26980,11 +26980,11 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -26998,28 +26998,28 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>0.265</v>
+        <v>0.255</v>
       </c>
       <c r="F761" t="n">
-        <v>0.265</v>
+        <v>0.255</v>
       </c>
       <c r="G761" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="H761" t="n">
         <v>0.255</v>
       </c>
       <c r="I761" t="n">
-        <v>5317300</v>
+        <v>5990000</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -27039,22 +27039,22 @@
         <v>0.255</v>
       </c>
       <c r="G762" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="H762" t="n">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="I762" t="n">
-        <v>3349900</v>
+        <v>2947400</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -27068,28 +27068,28 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="F763" t="n">
-        <v>0.255</v>
+        <v>0.25</v>
       </c>
       <c r="G763" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="H763" t="n">
         <v>0.25</v>
       </c>
       <c r="I763" t="n">
-        <v>2755100</v>
+        <v>1302600</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -27109,22 +27109,22 @@
         <v>0.25</v>
       </c>
       <c r="G764" t="n">
-        <v>0.235</v>
+        <v>0.245</v>
       </c>
       <c r="H764" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="I764" t="n">
-        <v>4820700</v>
+        <v>2218200</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -27138,28 +27138,28 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="F765" t="n">
-        <v>0.24</v>
+        <v>0.265</v>
       </c>
       <c r="G765" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="H765" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="I765" t="n">
-        <v>13711100</v>
+        <v>49261400</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -27173,28 +27173,28 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.235</v>
+        <v>0.265</v>
       </c>
       <c r="F766" t="n">
-        <v>0.235</v>
+        <v>0.27</v>
       </c>
       <c r="G766" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="H766" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="I766" t="n">
-        <v>3621000</v>
+        <v>9489200</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -27208,28 +27208,28 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="F767" t="n">
-        <v>0.235</v>
+        <v>0.27</v>
       </c>
       <c r="G767" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="H767" t="n">
-        <v>0.235</v>
+        <v>0.265</v>
       </c>
       <c r="I767" t="n">
-        <v>4504100</v>
+        <v>7531400</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -27243,28 +27243,28 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.235</v>
+        <v>0.265</v>
       </c>
       <c r="F768" t="n">
-        <v>0.235</v>
+        <v>0.27</v>
       </c>
       <c r="G768" t="n">
-        <v>0.225</v>
+        <v>0.26</v>
       </c>
       <c r="H768" t="n">
-        <v>0.225</v>
+        <v>0.26</v>
       </c>
       <c r="I768" t="n">
-        <v>3832100</v>
+        <v>5511300</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -27278,28 +27278,28 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>0.225</v>
+        <v>0.26</v>
       </c>
       <c r="F769" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="G769" t="n">
-        <v>0.225</v>
+        <v>0.26</v>
       </c>
       <c r="H769" t="n">
-        <v>0.225</v>
+        <v>0.265</v>
       </c>
       <c r="I769" t="n">
-        <v>925700</v>
+        <v>2368500</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -27313,28 +27313,28 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="F770" t="n">
-        <v>0.23</v>
+        <v>0.265</v>
       </c>
       <c r="G770" t="n">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="H770" t="n">
-        <v>0.225</v>
+        <v>0.255</v>
       </c>
       <c r="I770" t="n">
-        <v>722500</v>
+        <v>5317300</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -27348,28 +27348,28 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>0.225</v>
+        <v>0.255</v>
       </c>
       <c r="F771" t="n">
-        <v>0.24</v>
+        <v>0.255</v>
       </c>
       <c r="G771" t="n">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="H771" t="n">
-        <v>0.235</v>
+        <v>0.255</v>
       </c>
       <c r="I771" t="n">
-        <v>5460200</v>
+        <v>3349900</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -27383,28 +27383,28 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>0.235</v>
+        <v>0.255</v>
       </c>
       <c r="F772" t="n">
-        <v>0.24</v>
+        <v>0.255</v>
       </c>
       <c r="G772" t="n">
-        <v>0.235</v>
+        <v>0.25</v>
       </c>
       <c r="H772" t="n">
-        <v>0.235</v>
+        <v>0.25</v>
       </c>
       <c r="I772" t="n">
-        <v>2203300</v>
+        <v>2755100</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -27418,28 +27418,28 @@
         </is>
       </c>
       <c r="E773" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F773" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G773" t="n">
         <v>0.235</v>
       </c>
-      <c r="F773" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="G773" t="n">
-        <v>0.23</v>
-      </c>
       <c r="H773" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I773" t="n">
-        <v>1392700</v>
+        <v>4820700</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -27453,28 +27453,28 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>0.235</v>
+        <v>0.24</v>
       </c>
       <c r="F774" t="n">
-        <v>0.235</v>
+        <v>0.24</v>
       </c>
       <c r="G774" t="n">
         <v>0.23</v>
       </c>
       <c r="H774" t="n">
-        <v>0.235</v>
+        <v>0.23</v>
       </c>
       <c r="I774" t="n">
-        <v>1574300</v>
+        <v>13711100</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -27497,19 +27497,19 @@
         <v>0.23</v>
       </c>
       <c r="H775" t="n">
-        <v>0.235</v>
+        <v>0.23</v>
       </c>
       <c r="I775" t="n">
-        <v>1010100</v>
+        <v>3621000</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -27523,28 +27523,28 @@
         </is>
       </c>
       <c r="E776" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F776" t="n">
         <v>0.235</v>
       </c>
-      <c r="F776" t="n">
-        <v>0.245</v>
-      </c>
       <c r="G776" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H776" t="n">
         <v>0.235</v>
       </c>
-      <c r="H776" t="n">
-        <v>0.245</v>
-      </c>
       <c r="I776" t="n">
-        <v>11269400</v>
+        <v>4504100</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -27558,28 +27558,28 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>0.245</v>
+        <v>0.235</v>
       </c>
       <c r="F777" t="n">
-        <v>0.245</v>
+        <v>0.235</v>
       </c>
       <c r="G777" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="H777" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="I777" t="n">
-        <v>5609900</v>
+        <v>3832100</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -27593,28 +27593,28 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="F778" t="n">
-        <v>0.245</v>
+        <v>0.23</v>
       </c>
       <c r="G778" t="n">
-        <v>0.235</v>
+        <v>0.225</v>
       </c>
       <c r="H778" t="n">
-        <v>0.245</v>
+        <v>0.225</v>
       </c>
       <c r="I778" t="n">
-        <v>1645400</v>
+        <v>925700</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -27628,28 +27628,28 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>0.245</v>
+        <v>0.23</v>
       </c>
       <c r="F779" t="n">
-        <v>0.245</v>
+        <v>0.23</v>
       </c>
       <c r="G779" t="n">
-        <v>0.235</v>
+        <v>0.225</v>
       </c>
       <c r="H779" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="I779" t="n">
-        <v>4778300</v>
+        <v>722500</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -27663,28 +27663,28 @@
         </is>
       </c>
       <c r="E780" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F780" t="n">
         <v>0.24</v>
       </c>
-      <c r="F780" t="n">
-        <v>0.245</v>
-      </c>
       <c r="G780" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="H780" t="n">
-        <v>0.24</v>
+        <v>0.235</v>
       </c>
       <c r="I780" t="n">
-        <v>1373700</v>
+        <v>5460200</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -27698,28 +27698,28 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>0.245</v>
+        <v>0.235</v>
       </c>
       <c r="F781" t="n">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="G781" t="n">
         <v>0.235</v>
       </c>
       <c r="H781" t="n">
-        <v>0.24</v>
+        <v>0.235</v>
       </c>
       <c r="I781" t="n">
-        <v>1831400</v>
+        <v>2203300</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -27733,28 +27733,28 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>0.24</v>
+        <v>0.235</v>
       </c>
       <c r="F782" t="n">
-        <v>0.24</v>
+        <v>0.235</v>
       </c>
       <c r="G782" t="n">
-        <v>0.235</v>
+        <v>0.23</v>
       </c>
       <c r="H782" t="n">
-        <v>0.235</v>
+        <v>0.23</v>
       </c>
       <c r="I782" t="n">
-        <v>4751400</v>
+        <v>1392700</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -27771,7 +27771,7 @@
         <v>0.235</v>
       </c>
       <c r="F783" t="n">
-        <v>0.245</v>
+        <v>0.235</v>
       </c>
       <c r="G783" t="n">
         <v>0.23</v>
@@ -27780,16 +27780,16 @@
         <v>0.235</v>
       </c>
       <c r="I783" t="n">
-        <v>7024000</v>
+        <v>1574300</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -27806,25 +27806,25 @@
         <v>0.235</v>
       </c>
       <c r="F784" t="n">
-        <v>0.24</v>
+        <v>0.235</v>
       </c>
       <c r="G784" t="n">
-        <v>0.235</v>
+        <v>0.23</v>
       </c>
       <c r="H784" t="n">
         <v>0.235</v>
       </c>
       <c r="I784" t="n">
-        <v>5520800</v>
+        <v>1010100</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -27841,25 +27841,25 @@
         <v>0.235</v>
       </c>
       <c r="F785" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="G785" t="n">
         <v>0.235</v>
       </c>
       <c r="H785" t="n">
-        <v>0.235</v>
+        <v>0.245</v>
       </c>
       <c r="I785" t="n">
-        <v>2425100</v>
+        <v>11269400</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27873,28 +27873,28 @@
         </is>
       </c>
       <c r="E786" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F786" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G786" t="n">
         <v>0.24</v>
       </c>
-      <c r="F786" t="n">
+      <c r="H786" t="n">
         <v>0.24</v>
       </c>
-      <c r="G786" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="H786" t="n">
-        <v>0.23</v>
-      </c>
       <c r="I786" t="n">
-        <v>9872600</v>
+        <v>5609900</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -27908,28 +27908,28 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F787" t="n">
-        <v>0.23</v>
+        <v>0.245</v>
       </c>
       <c r="G787" t="n">
-        <v>0.215</v>
+        <v>0.235</v>
       </c>
       <c r="H787" t="n">
-        <v>0.225</v>
+        <v>0.245</v>
       </c>
       <c r="I787" t="n">
-        <v>11665100</v>
+        <v>1645400</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -27943,28 +27943,28 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>0.225</v>
+        <v>0.245</v>
       </c>
       <c r="F788" t="n">
-        <v>0.225</v>
+        <v>0.245</v>
       </c>
       <c r="G788" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="H788" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="I788" t="n">
-        <v>6376200</v>
+        <v>4778300</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -27978,28 +27978,28 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="F789" t="n">
-        <v>0.225</v>
+        <v>0.245</v>
       </c>
       <c r="G789" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="H789" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="I789" t="n">
-        <v>1159500</v>
+        <v>1373700</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -28013,28 +28013,28 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>0.225</v>
+        <v>0.245</v>
       </c>
       <c r="F790" t="n">
-        <v>0.225</v>
+        <v>0.245</v>
       </c>
       <c r="G790" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="H790" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="I790" t="n">
-        <v>1314500</v>
+        <v>1831400</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -28048,28 +28048,28 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="F791" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G791" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="H791" t="n">
-        <v>0.225</v>
+        <v>0.235</v>
       </c>
       <c r="I791" t="n">
-        <v>3077000</v>
+        <v>4751400</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -28083,28 +28083,28 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>0.225</v>
+        <v>0.235</v>
       </c>
       <c r="F792" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G792" t="n">
         <v>0.23</v>
       </c>
-      <c r="G792" t="n">
-        <v>0.225</v>
-      </c>
       <c r="H792" t="n">
-        <v>0.225</v>
+        <v>0.235</v>
       </c>
       <c r="I792" t="n">
-        <v>1661300</v>
+        <v>7024000</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -28118,28 +28118,28 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>0.225</v>
+        <v>0.235</v>
       </c>
       <c r="F793" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="G793" t="n">
-        <v>0.21</v>
+        <v>0.235</v>
       </c>
       <c r="H793" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="I793" t="n">
-        <v>14347400</v>
+        <v>5520800</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -28153,28 +28153,28 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="F794" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="G794" t="n">
-        <v>0.21</v>
+        <v>0.235</v>
       </c>
       <c r="H794" t="n">
-        <v>0.21</v>
+        <v>0.235</v>
       </c>
       <c r="I794" t="n">
-        <v>10546400</v>
+        <v>2425100</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -28188,28 +28188,28 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="F795" t="n">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="G795" t="n">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="H795" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I795" t="n">
-        <v>14779700</v>
+        <v>9872600</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -28223,28 +28223,28 @@
         </is>
       </c>
       <c r="E796" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G796" t="n">
         <v>0.215</v>
       </c>
-      <c r="F796" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G796" t="n">
-        <v>0.21</v>
-      </c>
       <c r="H796" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I796" t="n">
-        <v>5287100</v>
+        <v>11665100</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -28258,28 +28258,28 @@
         </is>
       </c>
       <c r="E797" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G797" t="n">
         <v>0.22</v>
       </c>
-      <c r="F797" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G797" t="n">
-        <v>0.215</v>
-      </c>
       <c r="H797" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I797" t="n">
-        <v>608700</v>
+        <v>6376200</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -28293,28 +28293,28 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F798" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G798" t="n">
         <v>0.22</v>
       </c>
-      <c r="G798" t="n">
-        <v>0.215</v>
-      </c>
       <c r="H798" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I798" t="n">
-        <v>671900</v>
+        <v>1159500</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -28328,28 +28328,28 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F799" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G799" t="n">
         <v>0.22</v>
       </c>
-      <c r="G799" t="n">
-        <v>0.215</v>
-      </c>
       <c r="H799" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I799" t="n">
-        <v>1018200</v>
+        <v>1314500</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -28363,28 +28363,28 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F800" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G800" t="n">
         <v>0.22</v>
       </c>
-      <c r="G800" t="n">
-        <v>0.215</v>
-      </c>
       <c r="H800" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="I800" t="n">
-        <v>3934200</v>
+        <v>3077000</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -28398,28 +28398,28 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F801" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G801" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="H801" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="I801" t="n">
-        <v>1830300</v>
+        <v>1661300</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -28433,28 +28433,28 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F802" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G802" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H802" t="n">
         <v>0.22</v>
       </c>
-      <c r="G802" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="H802" t="n">
-        <v>0.215</v>
-      </c>
       <c r="I802" t="n">
-        <v>1894300</v>
+        <v>14347400</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -28468,28 +28468,28 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="F803" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="G803" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="H803" t="n">
         <v>0.21</v>
       </c>
       <c r="I803" t="n">
-        <v>10652400</v>
+        <v>10546400</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -28503,28 +28503,28 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="F804" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G804" t="n">
         <v>0.21</v>
-      </c>
-      <c r="G804" t="n">
-        <v>0.2</v>
       </c>
       <c r="H804" t="n">
         <v>0.21</v>
       </c>
       <c r="I804" t="n">
-        <v>6195000</v>
+        <v>14779700</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -28538,28 +28538,28 @@
         </is>
       </c>
       <c r="E805" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G805" t="n">
         <v>0.21</v>
       </c>
-      <c r="F805" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="G805" t="n">
-        <v>0.205</v>
-      </c>
       <c r="H805" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="I805" t="n">
-        <v>1556000</v>
+        <v>5287100</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -28573,28 +28573,28 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F806" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G806" t="n">
         <v>0.215</v>
       </c>
-      <c r="G806" t="n">
-        <v>0.21</v>
-      </c>
       <c r="H806" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I806" t="n">
-        <v>937400</v>
+        <v>608700</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -28608,28 +28608,28 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="F807" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G807" t="n">
         <v>0.215</v>
       </c>
-      <c r="G807" t="n">
-        <v>0.205</v>
-      </c>
       <c r="H807" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I807" t="n">
-        <v>3341700</v>
+        <v>671900</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -28643,28 +28643,28 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="F808" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G808" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="H808" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I808" t="n">
-        <v>3165200</v>
+        <v>1018200</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -28678,28 +28678,28 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="F809" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G809" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="H809" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="I809" t="n">
-        <v>5192800</v>
+        <v>3934200</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -28713,28 +28713,28 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="F810" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G810" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="H810" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="I810" t="n">
-        <v>8309700</v>
+        <v>1830300</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -28748,28 +28748,28 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="F811" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="G811" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="H811" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="I811" t="n">
-        <v>8836900</v>
+        <v>1894300</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -28783,28 +28783,28 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="F812" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="G812" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="H812" t="n">
         <v>0.21</v>
       </c>
       <c r="I812" t="n">
-        <v>4675100</v>
+        <v>10652400</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28818,28 +28818,28 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="F813" t="n">
         <v>0.21</v>
       </c>
       <c r="G813" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="H813" t="n">
         <v>0.21</v>
       </c>
       <c r="I813" t="n">
-        <v>2833000</v>
+        <v>6195000</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28856,25 +28856,25 @@
         <v>0.21</v>
       </c>
       <c r="F814" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="G814" t="n">
         <v>0.205</v>
       </c>
       <c r="H814" t="n">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="I814" t="n">
-        <v>1028900</v>
+        <v>1556000</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28900,16 +28900,16 @@
         <v>0.21</v>
       </c>
       <c r="I815" t="n">
-        <v>3267600</v>
+        <v>937400</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -28929,22 +28929,22 @@
         <v>0.215</v>
       </c>
       <c r="G816" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H816" t="n">
         <v>0.21</v>
       </c>
-      <c r="H816" t="n">
-        <v>0.215</v>
-      </c>
       <c r="I816" t="n">
-        <v>1351800</v>
+        <v>3341700</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -28961,25 +28961,25 @@
         <v>0.21</v>
       </c>
       <c r="F817" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="G817" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H817" t="n">
         <v>0.21</v>
       </c>
-      <c r="H817" t="n">
-        <v>0.215</v>
-      </c>
       <c r="I817" t="n">
-        <v>3478900</v>
+        <v>3165200</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -28993,28 +28993,28 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="F818" t="n">
-        <v>0.225</v>
+        <v>0.21</v>
       </c>
       <c r="G818" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="H818" t="n">
-        <v>0.225</v>
+        <v>0.205</v>
       </c>
       <c r="I818" t="n">
-        <v>7243900</v>
+        <v>5192800</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -29028,28 +29028,28 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="F819" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G819" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H819" t="n">
-        <v>0.215</v>
+        <v>0.205</v>
       </c>
       <c r="I819" t="n">
-        <v>8498900</v>
+        <v>8309700</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -29063,28 +29063,28 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="F820" t="n">
-        <v>0.22</v>
+        <v>0.205</v>
       </c>
       <c r="G820" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H820" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="I820" t="n">
-        <v>2223900</v>
+        <v>8836900</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -29098,28 +29098,28 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F821" t="n">
-        <v>0.225</v>
+        <v>0.21</v>
       </c>
       <c r="G821" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="H821" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="I821" t="n">
-        <v>9258800</v>
+        <v>4675100</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -29133,28 +29133,28 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F822" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G822" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H822" t="n">
         <v>0.21</v>
       </c>
-      <c r="H822" t="n">
-        <v>0.215</v>
-      </c>
       <c r="I822" t="n">
-        <v>3332500</v>
+        <v>2833000</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -29174,22 +29174,22 @@
         <v>0.21</v>
       </c>
       <c r="G823" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="H823" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I823" t="n">
-        <v>15170100</v>
+        <v>1028900</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -29203,28 +29203,28 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F824" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="G824" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="H824" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I824" t="n">
-        <v>7626900</v>
+        <v>3267600</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -29238,28 +29238,28 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="F825" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="G825" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="H825" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="I825" t="n">
-        <v>6809700</v>
+        <v>1351800</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -29273,28 +29273,28 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F826" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="G826" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H826" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="I826" t="n">
-        <v>4077900</v>
+        <v>3478900</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -29308,28 +29308,28 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="F827" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="G827" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="H827" t="n">
-        <v>0.2</v>
+        <v>0.225</v>
       </c>
       <c r="I827" t="n">
-        <v>4343000</v>
+        <v>7243900</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -29343,28 +29343,28 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="F828" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="G828" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="H828" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="I828" t="n">
-        <v>2532300</v>
+        <v>8498900</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -29378,28 +29378,28 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="F829" t="n">
-        <v>0.195</v>
+        <v>0.22</v>
       </c>
       <c r="G829" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="H829" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="I829" t="n">
-        <v>14198800</v>
+        <v>2223900</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -29413,28 +29413,28 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="F830" t="n">
-        <v>0.185</v>
+        <v>0.225</v>
       </c>
       <c r="G830" t="n">
-        <v>0.175</v>
+        <v>0.215</v>
       </c>
       <c r="H830" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="I830" t="n">
-        <v>4967600</v>
+        <v>9258800</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -29448,28 +29448,28 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="F831" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="G831" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="H831" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="I831" t="n">
-        <v>1609300</v>
+        <v>3332500</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -29483,53 +29483,368 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="F832" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="G832" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="H832" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I832" t="n">
-        <v>17606200</v>
+        <v>15170100</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G833" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I833" t="n">
+        <v>7626900</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G834" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I834" t="n">
+        <v>6809700</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G835" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I835" t="n">
+        <v>4077900</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G836" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I836" t="n">
+        <v>4343000</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G837" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I837" t="n">
+        <v>2532300</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G838" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I838" t="n">
+        <v>14198800</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E839" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G839" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I839" t="n">
+        <v>4967600</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E840" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G840" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I840" t="n">
+        <v>1609300</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E841" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G841" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I841" t="n">
+        <v>17606200</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B833" t="inlineStr">
+      <c r="B842" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C833" t="inlineStr">
-        <is>
-          <t>0186</t>
-        </is>
-      </c>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>PTRANS</t>
-        </is>
-      </c>
-      <c r="E833" t="n">
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
         <v>0.16</v>
       </c>
-      <c r="F833" t="n">
+      <c r="F842" t="n">
         <v>0.165</v>
       </c>
-      <c r="G833" t="n">
+      <c r="G842" t="n">
         <v>0.14</v>
       </c>
-      <c r="H833" t="n">
+      <c r="H842" t="n">
         <v>0.16</v>
       </c>
-      <c r="I833" t="n">
+      <c r="I842" t="n">
         <v>21897200</v>
       </c>
     </row>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I842"/>
+  <dimension ref="A1:I843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29848,6 +29848,41 @@
         <v>21897200</v>
       </c>
     </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E843" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G843" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I843" t="n">
+        <v>10891000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I843"/>
+  <dimension ref="A1:I844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29883,6 +29883,41 @@
         <v>10891000</v>
       </c>
     </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E844" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G844" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I844" t="n">
+        <v>9630600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I844"/>
+  <dimension ref="A1:I845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29918,6 +29918,41 @@
         <v>9630600</v>
       </c>
     </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E845" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G845" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I845" t="n">
+        <v>18770000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I845"/>
+  <dimension ref="A1:I846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29953,6 +29953,41 @@
         <v>18770000</v>
       </c>
     </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G846" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I846" t="n">
+        <v>21251100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I846"/>
+  <dimension ref="A1:I847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29988,6 +29988,41 @@
         <v>21251100</v>
       </c>
     </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G847" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I847" t="n">
+        <v>18631800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I847"/>
+  <dimension ref="A1:I848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30023,6 +30023,41 @@
         <v>18631800</v>
       </c>
     </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G848" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I848" t="n">
+        <v>4755600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I848"/>
+  <dimension ref="A1:I849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30058,6 +30058,41 @@
         <v>4755600</v>
       </c>
     </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E849" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G849" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I849" t="n">
+        <v>7881500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I849"/>
+  <dimension ref="A1:I850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30093,6 +30093,41 @@
         <v>7881500</v>
       </c>
     </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E850" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G850" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I850" t="n">
+        <v>9658300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I850"/>
+  <dimension ref="A1:I851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30128,6 +30128,41 @@
         <v>9658300</v>
       </c>
     </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E851" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G851" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I851" t="n">
+        <v>3987400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I851"/>
+  <dimension ref="A1:I852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30163,6 +30163,41 @@
         <v>3987400</v>
       </c>
     </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G852" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I852" t="n">
+        <v>7146600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I852"/>
+  <dimension ref="A1:I853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30198,6 +30198,41 @@
         <v>7146600</v>
       </c>
     </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G853" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I853" t="n">
+        <v>7190800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I853"/>
+  <dimension ref="A1:I854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30233,6 +30233,41 @@
         <v>7190800</v>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G854" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I854" t="n">
+        <v>2640300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I854"/>
+  <dimension ref="A1:I855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30268,6 +30268,41 @@
         <v>2640300</v>
       </c>
     </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G855" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I855" t="n">
+        <v>16235400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I855"/>
+  <dimension ref="A1:I856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30303,6 +30303,41 @@
         <v>16235400</v>
       </c>
     </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G856" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I856" t="n">
+        <v>10921900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I856"/>
+  <dimension ref="A1:I857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30338,6 +30338,41 @@
         <v>10921900</v>
       </c>
     </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G857" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I857" t="n">
+        <v>17864600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I857"/>
+  <dimension ref="A1:I858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30373,6 +30373,41 @@
         <v>17864600</v>
       </c>
     </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G858" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I858" t="n">
+        <v>17410900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I858"/>
+  <dimension ref="A1:I859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30408,6 +30408,41 @@
         <v>17410900</v>
       </c>
     </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E859" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G859" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I859" t="n">
+        <v>13722800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I859"/>
+  <dimension ref="A1:I860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30443,6 +30443,41 @@
         <v>13722800</v>
       </c>
     </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E860" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G860" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H860" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I860" t="n">
+        <v>18036300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I860"/>
+  <dimension ref="A1:I861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30478,6 +30478,41 @@
         <v>18036300</v>
       </c>
     </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G861" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I861" t="n">
+        <v>7009800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I861"/>
+  <dimension ref="A1:I862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30513,6 +30513,41 @@
         <v>7009800</v>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G862" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I862" t="n">
+        <v>8544700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I862"/>
+  <dimension ref="A1:I863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30548,6 +30548,41 @@
         <v>8544700</v>
       </c>
     </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G863" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I863" t="n">
+        <v>24272900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I863"/>
+  <dimension ref="A1:I864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30583,6 +30583,41 @@
         <v>24272900</v>
       </c>
     </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G864" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I864" t="n">
+        <v>8373600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I864"/>
+  <dimension ref="A1:I865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30618,6 +30618,41 @@
         <v>8373600</v>
       </c>
     </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G865" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I865" t="n">
+        <v>22984500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I865"/>
+  <dimension ref="A1:I866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30653,6 +30653,41 @@
         <v>22984500</v>
       </c>
     </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G866" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I866" t="n">
+        <v>35003200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I866"/>
+  <dimension ref="A1:I867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30688,6 +30688,41 @@
         <v>35003200</v>
       </c>
     </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E867" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G867" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I867" t="n">
+        <v>15768900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I867"/>
+  <dimension ref="A1:I869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30723,6 +30723,76 @@
         <v>15768900</v>
       </c>
     </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E868" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F868" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G868" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I868" t="n">
+        <v>15172600</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E869" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G869" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I869" t="n">
+        <v>19539700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I869"/>
+  <dimension ref="A1:I870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30793,6 +30793,41 @@
         <v>19539700</v>
       </c>
     </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G870" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I870" t="n">
+        <v>9426900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I870"/>
+  <dimension ref="A1:I873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30828,6 +30828,111 @@
         <v>9426900</v>
       </c>
     </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E871" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G871" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I871" t="n">
+        <v>19104100</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G872" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I872" t="n">
+        <v>5913900</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F873" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G873" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H873" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I873" t="n">
+        <v>10518700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I873"/>
+  <dimension ref="A1:I874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30933,6 +30933,41 @@
         <v>10518700</v>
       </c>
     </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F874" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G874" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H874" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I874" t="n">
+        <v>8038700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I874"/>
+  <dimension ref="A1:I875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30968,6 +30968,41 @@
         <v>8038700</v>
       </c>
     </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G875" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I875" t="n">
+        <v>10953300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0186.xlsx
+++ b/data/0186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I875"/>
+  <dimension ref="A1:I878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31003,6 +31003,111 @@
         <v>10953300</v>
       </c>
     </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G876" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H876" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I876" t="n">
+        <v>3013000</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G877" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H877" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I877" t="n">
+        <v>3448500</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>0186</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>PTRANS</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G878" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H878" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I878" t="n">
+        <v>8231000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
